--- a/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4586,7 +4586,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L75">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L89">
@@ -21101,7 +21101,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -21111,7 +21111,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L367">
@@ -21899,7 +21899,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
@@ -21909,7 +21909,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L381">
@@ -25096,7 +25096,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -27206,7 +27206,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Okanogan-Mosquito Creek</t>
+          <t>Okanogan-Haynes Creek South</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -27268,7 +27268,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Okanogan-Mosquito Creek</t>
+          <t>Okanogan-Haynes Creek South</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -27330,7 +27330,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Okanogan-Mosquito Creek</t>
+          <t>Okanogan-Haynes Creek South</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -35499,7 +35499,7 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
@@ -36119,7 +36119,7 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
@@ -36129,7 +36129,7 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L625">
@@ -36933,7 +36933,7 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
@@ -37181,7 +37181,7 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
@@ -37801,7 +37801,7 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
@@ -38659,7 +38659,7 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J667" t="inlineStr">
@@ -38669,7 +38669,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L667">

--- a/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4562,6 +4562,11 @@
       <c r="G75">
         <v>0.6222222222222222</v>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4569,7 +4574,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L75">
@@ -21113,11 +21118,6 @@
       <c r="G369">
         <v>0.4222222222222222</v>
       </c>
-      <c r="I369" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J369" t="inlineStr">
         <is>
           <t>yes</t>
@@ -21125,7 +21125,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L369">
@@ -25096,11 +25096,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I439" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J439" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25108,7 +25103,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L439">
@@ -37193,6 +37188,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J649" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37200,7 +37200,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L649">
@@ -38056,11 +38056,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I663" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J663" t="inlineStr">
         <is>
           <t>yes</t>
@@ -38068,7 +38063,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L663">
@@ -38870,6 +38865,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J677" t="inlineStr">
         <is>
           <t>yes</t>
@@ -38877,7 +38877,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L677">

--- a/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4617,7 +4617,7 @@
         <v>2</v>
       </c>
       <c r="G76">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -4836,12 +4836,7 @@
         <v>2</v>
       </c>
       <c r="G80">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -4850,7 +4845,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L80">
@@ -4893,12 +4888,7 @@
         <v>2</v>
       </c>
       <c r="G81">
-        <v>0.6888888888888889</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4907,7 +4897,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L81">
@@ -4952,11 +4942,6 @@
       <c r="G82">
         <v>0.6222222222222222</v>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J82" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4964,7 +4949,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L82">
@@ -5406,7 +5391,7 @@
         <v>2</v>
       </c>
       <c r="G90">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -9661,7 +9646,7 @@
         <v>2</v>
       </c>
       <c r="G166">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -9718,7 +9703,7 @@
         <v>2</v>
       </c>
       <c r="G167">
-        <v>0.9111111111111111</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -9775,7 +9760,7 @@
         <v>2</v>
       </c>
       <c r="G168">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -9832,7 +9817,7 @@
         <v>2</v>
       </c>
       <c r="G169">
-        <v>0.9111111111111111</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -9889,7 +9874,7 @@
         <v>2</v>
       </c>
       <c r="G170">
-        <v>0.8444444444444444</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -10287,18 +10272,13 @@
         <v>1</v>
       </c>
       <c r="G177">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J177" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10306,7 +10286,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L177">
@@ -10349,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="G178">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
@@ -10411,18 +10391,13 @@
         <v>1</v>
       </c>
       <c r="G179">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J179" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10430,7 +10405,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L179">
@@ -10473,18 +10448,13 @@
         <v>1</v>
       </c>
       <c r="G180">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J180" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10492,7 +10462,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L180">
@@ -10535,7 +10505,7 @@
         <v>1</v>
       </c>
       <c r="G181">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -10601,19 +10571,14 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L182">
@@ -10660,19 +10625,14 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L183">
@@ -10719,19 +10679,14 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L184">
@@ -10778,19 +10733,14 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L185">
@@ -10896,19 +10846,14 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L187">
@@ -10958,14 +10903,9 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -11020,14 +10960,9 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -11075,16 +11010,11 @@
         <v>1</v>
       </c>
       <c r="G190">
-        <v>0.7111111111111111</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
           <t>Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -11199,18 +11129,13 @@
         <v>2</v>
       </c>
       <c r="G192">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J192" t="inlineStr">
         <is>
           <t>yes</t>
@@ -11218,7 +11143,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L192">
@@ -11330,11 +11255,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J194" t="inlineStr">
         <is>
           <t>yes</t>
@@ -11342,7 +11262,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L194">
@@ -11392,11 +11312,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J195" t="inlineStr">
         <is>
           <t>yes</t>
@@ -11404,7 +11319,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L195">
@@ -14389,14 +14304,19 @@
           <t>Adult Migration</t>
         </is>
       </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L248">
@@ -14443,14 +14363,19 @@
           <t>Adult Migration</t>
         </is>
       </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L249">
@@ -14497,14 +14422,19 @@
           <t>Adult Migration</t>
         </is>
       </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L250">
@@ -14551,14 +14481,19 @@
           <t>Adult Migration</t>
         </is>
       </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L251">
@@ -14605,14 +14540,19 @@
           <t>Adult Migration</t>
         </is>
       </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L252">
@@ -14777,14 +14717,19 @@
           <t>Adult Migration</t>
         </is>
       </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L255">
@@ -19700,13 +19645,18 @@
         <v>2</v>
       </c>
       <c r="G344">
-        <v>0.4</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J344" t="inlineStr">
         <is>
           <t>yes</t>
@@ -19714,7 +19664,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L344">
@@ -19764,6 +19714,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J345" t="inlineStr">
         <is>
           <t>yes</t>
@@ -19771,7 +19726,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L345">
@@ -19821,6 +19776,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J346" t="inlineStr">
         <is>
           <t>yes</t>
@@ -19828,7 +19788,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L346">
@@ -19878,9 +19838,14 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -20606,7 +20571,7 @@
         <v>2</v>
       </c>
       <c r="G360">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I360" t="inlineStr">
         <is>
@@ -20663,7 +20628,7 @@
         <v>2</v>
       </c>
       <c r="G361">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
@@ -20720,7 +20685,7 @@
         <v>2</v>
       </c>
       <c r="G362">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I362" t="inlineStr">
         <is>
@@ -20777,7 +20742,7 @@
         <v>2</v>
       </c>
       <c r="G363">
-        <v>0.3111111111111111</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="I363" t="inlineStr">
         <is>
@@ -20834,7 +20799,7 @@
         <v>2</v>
       </c>
       <c r="G364">
-        <v>0.3111111111111111</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="I364" t="inlineStr">
         <is>
@@ -20891,7 +20856,7 @@
         <v>2</v>
       </c>
       <c r="G365">
-        <v>0.3333333333333333</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="I365" t="inlineStr">
         <is>
@@ -20948,7 +20913,7 @@
         <v>2</v>
       </c>
       <c r="G366">
-        <v>0.3333333333333333</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="I366" t="inlineStr">
         <is>
@@ -21005,7 +20970,7 @@
         <v>2</v>
       </c>
       <c r="G367">
-        <v>0.4444444444444444</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="I367" t="inlineStr">
         <is>
@@ -21396,7 +21361,7 @@
         <v>1</v>
       </c>
       <c r="G374">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="I374" t="inlineStr">
         <is>
@@ -21453,7 +21418,7 @@
         <v>1</v>
       </c>
       <c r="G375">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="I375" t="inlineStr">
         <is>
@@ -21510,7 +21475,7 @@
         <v>1</v>
       </c>
       <c r="G376">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
@@ -21624,7 +21589,7 @@
         <v>1</v>
       </c>
       <c r="G378">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I378" t="inlineStr">
         <is>
@@ -21681,7 +21646,7 @@
         <v>1</v>
       </c>
       <c r="G379">
-        <v>0.4222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="I379" t="inlineStr">
         <is>
@@ -22417,7 +22382,7 @@
         <v>2</v>
       </c>
       <c r="G392">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I392" t="inlineStr">
         <is>
@@ -22588,7 +22553,7 @@
         <v>2</v>
       </c>
       <c r="G395">
-        <v>0.8444444444444444</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="I395" t="inlineStr">
         <is>
@@ -22930,7 +22895,7 @@
         <v>1</v>
       </c>
       <c r="G401">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I401" t="inlineStr">
         <is>
@@ -22987,7 +22952,7 @@
         <v>1</v>
       </c>
       <c r="G402">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="I402" t="inlineStr">
         <is>
@@ -23044,7 +23009,7 @@
         <v>1</v>
       </c>
       <c r="G403">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="I403" t="inlineStr">
         <is>
@@ -23101,7 +23066,7 @@
         <v>1</v>
       </c>
       <c r="G404">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="I404" t="inlineStr">
         <is>
@@ -23158,7 +23123,7 @@
         <v>1</v>
       </c>
       <c r="G405">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="I405" t="inlineStr">
         <is>
@@ -23215,7 +23180,7 @@
         <v>1</v>
       </c>
       <c r="G406">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I406" t="inlineStr">
         <is>
@@ -23272,7 +23237,7 @@
         <v>1</v>
       </c>
       <c r="G407">
-        <v>0.7777777777777778</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="I407" t="inlineStr">
         <is>
@@ -23329,7 +23294,7 @@
         <v>1</v>
       </c>
       <c r="G408">
-        <v>0.7777777777777778</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="I408" t="inlineStr">
         <is>
@@ -23386,7 +23351,7 @@
         <v>1</v>
       </c>
       <c r="G409">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I409" t="inlineStr">
         <is>
@@ -23400,7 +23365,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L409">
@@ -24851,7 +24816,7 @@
         <v>1</v>
       </c>
       <c r="G435">
-        <v>0.8444444444444444</v>
+        <v>0.8</v>
       </c>
       <c r="H435" t="inlineStr">
         <is>
@@ -24920,9 +24885,14 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -24970,11 +24940,16 @@
         <v>1</v>
       </c>
       <c r="G437">
-        <v>0.8</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="H437" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -25034,11 +25009,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I438" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J438" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25046,7 +25016,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L438">
@@ -25089,7 +25059,7 @@
         <v>1</v>
       </c>
       <c r="G439">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H439" t="inlineStr">
         <is>
@@ -25153,11 +25123,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I440" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J440" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25165,7 +25130,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L440">
@@ -25215,11 +25180,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I441" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J441" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25227,7 +25187,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L441">
@@ -25277,11 +25237,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I442" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J442" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25289,7 +25244,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L442">
@@ -25389,18 +25344,13 @@
         <v>1</v>
       </c>
       <c r="G444">
-        <v>0.4222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I444" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J444" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25408,7 +25358,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L444">
@@ -25458,11 +25408,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I445" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J445" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25470,7 +25415,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L445">
@@ -30675,7 +30620,7 @@
         <v>1</v>
       </c>
       <c r="G535">
-        <v>0.3777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H535" t="inlineStr">
         <is>
@@ -30737,7 +30682,7 @@
         <v>1</v>
       </c>
       <c r="G536">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H536" t="inlineStr">
         <is>
@@ -35424,19 +35369,14 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I618" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L618">
@@ -37002,11 +36942,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I646" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J646" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37014,7 +36949,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L646">
@@ -37064,11 +36999,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I647" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J647" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37076,7 +37006,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L647">
@@ -37126,11 +37056,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I648" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J648" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37138,7 +37063,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L648">
@@ -37188,11 +37113,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I649" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J649" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37200,7 +37120,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L649">
@@ -37250,11 +37170,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I650" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J650" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37262,7 +37177,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L650">
@@ -37312,11 +37227,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I651" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J651" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37324,7 +37234,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L651">
@@ -37374,11 +37284,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I652" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J652" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37386,7 +37291,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L652">
@@ -37436,11 +37341,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I653" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J653" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37448,7 +37348,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L653">
@@ -37498,11 +37398,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I654" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J654" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37510,7 +37405,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L654">
@@ -37560,11 +37455,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I655" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J655" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37572,7 +37462,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L655">
@@ -37622,11 +37512,6 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
-      <c r="I656" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J656" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37634,7 +37519,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L656">
@@ -38056,6 +37941,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J663" t="inlineStr">
         <is>
           <t>yes</t>
@@ -38063,7 +37953,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L663">
@@ -38803,11 +38693,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I676" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J676" t="inlineStr">
         <is>
           <t>yes</t>
@@ -38865,11 +38750,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I677" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J677" t="inlineStr">
         <is>
           <t>yes</t>
@@ -38877,7 +38757,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L677">
@@ -38927,11 +38807,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I678" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J678" t="inlineStr">
         <is>
           <t>yes</t>
@@ -38939,7 +38814,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L678">
@@ -38982,18 +38857,13 @@
         <v>2</v>
       </c>
       <c r="G679">
-        <v>0.3777777777777778</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H679" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I679" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J679" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39001,7 +38871,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L679">
@@ -39051,11 +38921,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I680" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J680" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39063,7 +38928,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L680">
@@ -39113,11 +38978,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I681" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J681" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39125,7 +38985,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L681">
@@ -39175,11 +39035,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I682" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J682" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39187,7 +39042,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L682">
@@ -39237,11 +39092,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I683" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J683" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39249,7 +39099,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L683">
@@ -39299,11 +39149,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I684" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J684" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39311,7 +39156,7 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L684">
@@ -39354,18 +39199,13 @@
         <v>2</v>
       </c>
       <c r="G685">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H685" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I685" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J685" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39373,7 +39213,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L685">
@@ -39423,11 +39263,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I686" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J686" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39435,7 +39270,7 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L686">
@@ -39485,11 +39320,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I687" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J687" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39497,7 +39327,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L687">
@@ -39540,18 +39370,13 @@
         <v>3</v>
       </c>
       <c r="G688">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H688" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I688" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J688" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39559,7 +39384,7 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L688">
@@ -39602,18 +39427,13 @@
         <v>3</v>
       </c>
       <c r="G689">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H689" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I689" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J689" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39621,7 +39441,7 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L689">
@@ -39664,18 +39484,13 @@
         <v>3</v>
       </c>
       <c r="G690">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H690" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I690" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J690" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39683,7 +39498,7 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L690">
@@ -39726,7 +39541,7 @@
         <v>3</v>
       </c>
       <c r="G691">
-        <v>0.5777777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H691" t="inlineStr">
         <is>
@@ -39783,18 +39598,13 @@
         <v>3</v>
       </c>
       <c r="G692">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="H692" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I692" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J692" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39802,7 +39612,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L692">
@@ -39852,11 +39662,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I693" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J693" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39864,7 +39669,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L693">
@@ -39907,7 +39712,7 @@
         <v>2</v>
       </c>
       <c r="G694">
-        <v>0.4</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H694" t="inlineStr">
         <is>
@@ -39969,7 +39774,7 @@
         <v>2</v>
       </c>
       <c r="G695">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H695" t="inlineStr">
         <is>
@@ -40031,7 +39836,7 @@
         <v>2</v>
       </c>
       <c r="G696">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H696" t="inlineStr">
         <is>
@@ -40093,7 +39898,7 @@
         <v>2</v>
       </c>
       <c r="G697">
-        <v>0.5333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="H697" t="inlineStr">
         <is>
@@ -40286,11 +40091,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I700" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J700" t="inlineStr">
         <is>
           <t>yes</t>
@@ -40298,7 +40098,7 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L700">
@@ -40348,11 +40148,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I701" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J701" t="inlineStr">
         <is>
           <t>yes</t>
@@ -40360,7 +40155,7 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L701">
@@ -40410,11 +40205,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I702" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J702" t="inlineStr">
         <is>
           <t>yes</t>
@@ -40422,7 +40212,7 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L702">
@@ -40472,11 +40262,6 @@
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="I703" t="inlineStr">
-        <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
-        </is>
-      </c>
       <c r="J703" t="inlineStr">
         <is>
           <t>yes</t>
@@ -40484,7 +40269,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L703">
@@ -40527,7 +40312,12 @@
         <v>2</v>
       </c>
       <c r="G704">
-        <v>0.5111111111111111</v>
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
       </c>
       <c r="J704" t="inlineStr">
         <is>
@@ -40536,7 +40326,7 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L704">
@@ -40579,7 +40369,12 @@
         <v>2</v>
       </c>
       <c r="G705">
-        <v>0.5333333333333333</v>
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
       </c>
       <c r="J705" t="inlineStr">
         <is>
@@ -40588,7 +40383,7 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L705">
@@ -40630,14 +40425,19 @@
       <c r="F706">
         <v>2</v>
       </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L706">
@@ -40679,14 +40479,19 @@
       <c r="F707">
         <v>2</v>
       </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L707">
@@ -40728,14 +40533,19 @@
       <c r="F708">
         <v>2</v>
       </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L708">
@@ -40777,14 +40587,19 @@
       <c r="F709">
         <v>2</v>
       </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L709">
@@ -40826,14 +40641,19 @@
       <c r="F710">
         <v>2</v>
       </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L710">
@@ -42025,7 +41845,7 @@
         <v>2</v>
       </c>
       <c r="G732">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="I732" t="inlineStr">
         <is>

--- a/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -747,6 +747,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Temperature- Adult Holding,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>yes</t>
@@ -804,6 +809,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>yes</t>
@@ -861,6 +871,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>yes</t>
@@ -980,6 +995,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>yes</t>
@@ -1037,6 +1057,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4838,6 +4863,11 @@
       <c r="G80">
         <v>0.6666666666666666</v>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4845,7 +4875,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L80">
@@ -4890,6 +4920,11 @@
       <c r="G81">
         <v>0.6666666666666666</v>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4897,7 +4932,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L81">
@@ -4942,6 +4977,11 @@
       <c r="G82">
         <v>0.6222222222222222</v>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
           <t>yes</t>
@@ -4949,7 +4989,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L82">
@@ -5338,7 +5378,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5348,7 +5388,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L89">
@@ -10279,6 +10319,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J177" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10286,7 +10331,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L177">
@@ -10398,6 +10443,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J179" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10405,7 +10455,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L179">
@@ -10455,6 +10505,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J180" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10462,7 +10517,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L180">
@@ -10571,14 +10626,19 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L182">
@@ -10625,14 +10685,19 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L183">
@@ -10679,14 +10744,19 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L184">
@@ -10733,14 +10803,19 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L185">
@@ -10846,6 +10921,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+        </is>
+      </c>
       <c r="J187" t="inlineStr">
         <is>
           <t>yes</t>
@@ -10903,9 +10983,14 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -10960,9 +11045,14 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -11017,6 +11107,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J190" t="inlineStr">
         <is>
           <t>yes</t>
@@ -11024,7 +11119,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L190">
@@ -11136,6 +11231,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J192" t="inlineStr">
         <is>
           <t>yes</t>
@@ -11143,7 +11243,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L192">
@@ -11255,6 +11355,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J194" t="inlineStr">
         <is>
           <t>yes</t>
@@ -11262,7 +11367,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L194">
@@ -11312,6 +11417,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J195" t="inlineStr">
         <is>
           <t>yes</t>
@@ -11319,7 +11429,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L195">
@@ -14306,17 +14416,17 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L248">
@@ -14365,17 +14475,17 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L249">
@@ -14424,17 +14534,17 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L250">
@@ -14483,17 +14593,17 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L251">
@@ -14542,17 +14652,17 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L252">
@@ -14719,17 +14829,17 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L255">
@@ -15913,6 +16023,11 @@
           <t>Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Temperature- Adult Holding,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J277" t="inlineStr">
         <is>
           <t>yes</t>
@@ -19481,6 +19596,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing</t>
         </is>
       </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J341" t="inlineStr">
         <is>
           <t>yes</t>
@@ -19538,6 +19658,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing</t>
         </is>
       </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J342" t="inlineStr">
         <is>
           <t>yes</t>
@@ -19595,6 +19720,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing</t>
         </is>
       </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J343" t="inlineStr">
         <is>
           <t>yes</t>
@@ -19654,7 +19784,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -19664,7 +19794,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L344">
@@ -19716,7 +19846,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -19726,7 +19856,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L345">
@@ -19778,7 +19908,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -19788,7 +19918,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L346">
@@ -19840,12 +19970,12 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Boulders,Cover- Undercut Banks,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -21083,6 +21213,11 @@
       <c r="G369">
         <v>0.4222222222222222</v>
       </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J369" t="inlineStr">
         <is>
           <t>yes</t>
@@ -21090,7 +21225,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L369">
@@ -21308,7 +21443,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -21318,7 +21453,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L373">
@@ -21876,6 +22011,11 @@
       <c r="G383">
         <v>0.4444444444444444</v>
       </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J383" t="inlineStr">
         <is>
           <t>yes</t>
@@ -21883,7 +22023,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L383">
@@ -22101,7 +22241,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -22111,7 +22251,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L387">
@@ -24887,12 +25027,12 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Undercut Banks,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -24949,7 +25089,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Undercut Banks,Flow- Summer Base Flow,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -25009,6 +25149,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+        </is>
+      </c>
       <c r="J438" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25066,6 +25211,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+        </is>
+      </c>
       <c r="J439" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25123,6 +25273,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+        </is>
+      </c>
       <c r="J440" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25180,6 +25335,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+        </is>
+      </c>
       <c r="J441" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25237,6 +25397,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J442" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25244,7 +25409,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L442">
@@ -25294,6 +25459,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Contaminants,Flow- Summer Base Flow</t>
+        </is>
+      </c>
       <c r="J443" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25351,6 +25521,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+        </is>
+      </c>
       <c r="J444" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25408,6 +25583,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J445" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25415,7 +25595,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L445">
@@ -25465,6 +25645,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+        </is>
+      </c>
       <c r="J446" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25522,6 +25707,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+        </is>
+      </c>
       <c r="J447" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25579,6 +25769,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+        </is>
+      </c>
       <c r="J448" t="inlineStr">
         <is>
           <t>yes</t>
@@ -25636,6 +25831,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+        </is>
+      </c>
       <c r="J449" t="inlineStr">
         <is>
           <t>yes</t>
@@ -29292,6 +29492,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+        </is>
+      </c>
       <c r="J512" t="inlineStr">
         <is>
           <t>yes</t>
@@ -29810,6 +30015,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>Temperature- Adult Holding,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing</t>
+        </is>
+      </c>
       <c r="J521" t="inlineStr">
         <is>
           <t>yes</t>
@@ -29867,6 +30077,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>Temperature- Adult Holding,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing</t>
+        </is>
+      </c>
       <c r="J522" t="inlineStr">
         <is>
           <t>yes</t>
@@ -29986,6 +30201,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>Temperature- Adult Holding,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing</t>
+        </is>
+      </c>
       <c r="J524" t="inlineStr">
         <is>
           <t>yes</t>
@@ -30043,6 +30263,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+        </is>
+      </c>
       <c r="J525" t="inlineStr">
         <is>
           <t>yes</t>
@@ -30100,6 +30325,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+        </is>
+      </c>
       <c r="J526" t="inlineStr">
         <is>
           <t>yes</t>
@@ -30157,6 +30387,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+        </is>
+      </c>
       <c r="J527" t="inlineStr">
         <is>
           <t>yes</t>
@@ -30214,6 +30449,11 @@
           <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+        </is>
+      </c>
       <c r="J528" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33276,6 +33516,11 @@
           <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Temperature- Adult Holding,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J581" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33333,6 +33578,11 @@
           <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+        </is>
+      </c>
       <c r="J582" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33390,6 +33640,11 @@
           <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J583" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33509,6 +33764,11 @@
           <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Temperature- Adult Holding,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J585" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33566,6 +33826,11 @@
           <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+        </is>
+      </c>
       <c r="J586" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33623,6 +33888,11 @@
           <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J587" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33742,6 +34012,11 @@
           <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+        </is>
+      </c>
       <c r="J589" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33799,6 +34074,11 @@
           <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+        </is>
+      </c>
       <c r="J590" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33856,6 +34136,11 @@
           <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J591" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33913,6 +34198,11 @@
           <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J592" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34307,6 +34597,11 @@
           <t>Adult Migration,Summer Rearing</t>
         </is>
       </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Temperature- Adult Holding,Cover- Wood,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J599" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34364,6 +34659,11 @@
           <t>Adult Migration,Summer Rearing</t>
         </is>
       </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Temperature- Adult Holding,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J600" t="inlineStr">
         <is>
           <t>yes</t>
@@ -34545,6 +34845,11 @@
           <t>Adult Migration,Summer Rearing</t>
         </is>
       </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Cover- Wood,Temperature- Adult Holding,Cover- Wood,Cover- Wood,Cover- Wood,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J603" t="inlineStr">
         <is>
           <t>yes</t>
@@ -35369,14 +35674,19 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L618">
@@ -36942,6 +37252,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J646" t="inlineStr">
         <is>
           <t>yes</t>
@@ -36949,7 +37264,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L646">
@@ -36999,6 +37314,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J647" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37006,7 +37326,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L647">
@@ -37056,6 +37376,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J648" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37063,7 +37388,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L648">
@@ -37113,6 +37438,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J649" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37120,7 +37450,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L649">
@@ -37170,6 +37500,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J650" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37177,7 +37512,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L650">
@@ -37227,6 +37562,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J651" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37234,7 +37574,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L651">
@@ -37284,6 +37624,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J652" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37291,7 +37636,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L652">
@@ -37341,6 +37686,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+        </is>
+      </c>
       <c r="J653" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37398,6 +37748,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J654" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37405,7 +37760,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L654">
@@ -37455,6 +37810,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J655" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37462,7 +37822,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L655">
@@ -37512,6 +37872,11 @@
           <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J656" t="inlineStr">
         <is>
           <t>yes</t>
@@ -37519,7 +37884,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L656">
@@ -37943,7 +38308,7 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
@@ -37953,7 +38318,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L663">
@@ -38114,6 +38479,9 @@
       <c r="F666">
         <v>2</v>
       </c>
+      <c r="G666">
+        <v>0.8222222222222222</v>
+      </c>
       <c r="I666" t="inlineStr">
         <is>
           <t>No Priority Life Stages with Limiting Factors</t>
@@ -38126,7 +38494,7 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L666">
@@ -38168,6 +38536,9 @@
       <c r="F667">
         <v>2</v>
       </c>
+      <c r="G667">
+        <v>0.8222222222222222</v>
+      </c>
       <c r="I667" t="inlineStr">
         <is>
           <t>No Priority Life Stages with Limiting Factors</t>
@@ -38180,7 +38551,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L667">
@@ -38693,6 +39064,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J676" t="inlineStr">
         <is>
           <t>yes</t>
@@ -38750,6 +39126,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J677" t="inlineStr">
         <is>
           <t>yes</t>
@@ -38757,7 +39138,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L677">
@@ -38807,6 +39188,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J678" t="inlineStr">
         <is>
           <t>yes</t>
@@ -38814,7 +39200,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L678">
@@ -38864,6 +39250,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J679" t="inlineStr">
         <is>
           <t>yes</t>
@@ -38871,7 +39262,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L679">
@@ -38921,6 +39312,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J680" t="inlineStr">
         <is>
           <t>yes</t>
@@ -38928,7 +39324,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L680">
@@ -38978,6 +39374,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+        </is>
+      </c>
       <c r="J681" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39035,6 +39436,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J682" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39042,7 +39448,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L682">
@@ -39092,6 +39498,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J683" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39099,7 +39510,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L683">
@@ -39149,6 +39560,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J684" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39156,7 +39572,7 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L684">
@@ -39206,6 +39622,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J685" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39213,7 +39634,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L685">
@@ -39263,6 +39684,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J686" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39270,7 +39696,7 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L686">
@@ -39320,6 +39746,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J687" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39327,7 +39758,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L687">
@@ -39377,6 +39808,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J688" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39384,7 +39820,7 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L688">
@@ -39434,6 +39870,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J689" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39441,7 +39882,7 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L689">
@@ -39491,6 +39932,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J690" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39498,7 +39944,7 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L690">
@@ -39548,6 +39994,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+        </is>
+      </c>
       <c r="J691" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39605,6 +40056,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J692" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39612,7 +40068,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L692">
@@ -39662,6 +40118,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J693" t="inlineStr">
         <is>
           <t>yes</t>
@@ -39669,7 +40130,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L693">
@@ -40091,6 +40552,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J700" t="inlineStr">
         <is>
           <t>yes</t>
@@ -40098,7 +40564,7 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L700">
@@ -40148,6 +40614,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J701" t="inlineStr">
         <is>
           <t>yes</t>
@@ -40155,7 +40626,7 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L701">
@@ -40205,6 +40676,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J702" t="inlineStr">
         <is>
           <t>yes</t>
@@ -40212,7 +40688,7 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L702">
@@ -40262,6 +40738,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>No Priority Life Stages with Limiting Factors</t>
+        </is>
+      </c>
       <c r="J703" t="inlineStr">
         <is>
           <t>yes</t>
@@ -40269,7 +40750,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L703">
@@ -40316,7 +40797,7 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
@@ -40326,7 +40807,7 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L704">
@@ -40373,7 +40854,7 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">
@@ -40383,7 +40864,7 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L705">
@@ -40427,17 +40908,17 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L706">
@@ -40481,17 +40962,17 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L707">
@@ -40535,17 +41016,17 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L708">
@@ -40589,17 +41070,17 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L709">
@@ -40643,17 +41124,17 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L710">

--- a/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4589,7 +4589,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L75">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L89">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -19846,7 +19846,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -21453,7 +21453,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L373">
@@ -22241,7 +22241,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -22251,7 +22251,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L387">
@@ -25213,7 +25213,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -25461,7 +25461,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Contaminants,Flow- Summer Base Flow</t>
+          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Contaminants,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -37440,7 +37440,7 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
@@ -37450,7 +37450,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L649">
@@ -37688,7 +37688,7 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
@@ -37698,7 +37698,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L653">
@@ -38308,7 +38308,7 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
@@ -39128,7 +39128,7 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
@@ -39138,7 +39138,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L677">
@@ -39376,7 +39376,7 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J681" t="inlineStr">
@@ -39386,7 +39386,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L681">
@@ -39996,7 +39996,7 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>Coarse Substrate,Cover- Wood,Coarse Substrate,Contaminants,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
@@ -40854,7 +40854,7 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
+          <t>Flow- Summer Base Flow,Coarse Substrate,Cover- Wood,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">

--- a/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4589,7 +4589,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L75">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Predators- Juveniles</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L177">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -21453,7 +21453,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L373">
@@ -22241,7 +22241,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -22251,7 +22251,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L387">
@@ -25213,7 +25213,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
+          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -25461,7 +25461,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Contaminants,Flow- Summer Base Flow</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Contaminants,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -37440,7 +37440,7 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
@@ -37450,7 +37450,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L649">
@@ -38308,7 +38308,7 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
@@ -38318,7 +38318,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L663">
@@ -39996,7 +39996,7 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Coarse Substrate,Contaminants,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing</t>
+          <t>Coarse Substrate,Contaminants,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
@@ -40854,7 +40854,7 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Coarse Substrate,Cover- Wood,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">

--- a/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -4589,7 +4589,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L75">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Predators- Juveniles</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L177">
@@ -10923,17 +10923,17 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L187">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -21453,7 +21453,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L373">
@@ -22013,7 +22013,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -22023,7 +22023,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L383">
@@ -22241,7 +22241,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -22251,7 +22251,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L387">
@@ -25213,7 +25213,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -25461,7 +25461,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Contaminants,Flow- Summer Base Flow</t>
+          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Pools- Deep Pools,Temperature- Adult Holding,% Fines/Embeddedness,Contaminants,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -37440,7 +37440,7 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
@@ -37450,7 +37450,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L649">
@@ -39128,7 +39128,7 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Off-Channel- Floodplain,Off-Channel- Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
+          <t>Cover- Wood,Off-Channel- Floodplain,Off-Channel- Side-Channels</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
@@ -39996,7 +39996,7 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Contaminants,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>No Priority Life Stages with Limiting Factors</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
@@ -40006,7 +40006,7 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L691">
@@ -40854,7 +40854,7 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding,Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Adult Holding</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">

--- a/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
+++ b/Output/Steelhead_Ranks_ALL_OUTPUT_Methow_Entiat_Wenatchee_Okanogan.xlsx
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -859,12 +859,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Temperature- Adult Holding,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Coarse Substrate,% Fines/Embeddedness,Temperature- Rearing,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Cover- Wood,Food- Food Web Resources,Coarse Substrate,Cover- Wood,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,% Fines/Embeddedness,Flow- Summer Base Flow,Coarse Substrate,Pool Quantity &amp; Quality,Cover- Wood,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate,% Fines/Embeddedness,Cover- Wood,Coarse Substrate</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,% Fines/Embeddedness,Coarse Substrate,Flow- Summer Base Flow,Temperature- Rearing,Coarse Substrate,Cover- Wood,% Fines/Embeddedness,Cover- Wood,Coarse Substrate</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate,Coarse Substrate</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L10">
@@ -1175,12 +1175,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Cover- Wood,Coarse Substrate,Cover- Wood,Coarse Substrate</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1254,12 +1254,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate,Cover- Wood,Coarse Substrate,Cover- Wood</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Coarse Substrate</t>
+          <t>Coarse Substrate,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2138,7 +2138,7 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>0.5333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4230,12 +4230,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,% Fines/Embeddedness,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -8551,7 +8551,7 @@
         <v>2</v>
       </c>
       <c r="G107">
-        <v>0.6444444444444445</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>2</v>
       </c>
       <c r="G108">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>2</v>
       </c>
       <c r="G109">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>2</v>
       </c>
       <c r="G110">
-        <v>0.6</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>2</v>
       </c>
       <c r="G111">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>2</v>
       </c>
       <c r="G112">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="G149">
-        <v>0.9111111111111111</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -13829,12 +13829,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Predators- Juveniles,Temperature- Rearing,</t>
+          <t>,Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -13904,16 +13904,16 @@
         <v>1</v>
       </c>
       <c r="G177">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Predators- Juveniles,Temperature- Rearing,% Fines/Embeddedness,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -13983,16 +13983,16 @@
         <v>1</v>
       </c>
       <c r="G178">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -14062,16 +14062,16 @@
         <v>1</v>
       </c>
       <c r="G179">
-        <v>0.6666666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -14141,16 +14141,16 @@
         <v>1</v>
       </c>
       <c r="G180">
-        <v>0.7111111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -14220,16 +14220,16 @@
         <v>1</v>
       </c>
       <c r="G181">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -14300,12 +14300,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -14376,12 +14376,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -14452,12 +14452,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -14528,12 +14528,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Undercut Banks,Cover- Wood,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -14604,12 +14604,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -14680,12 +14680,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Wood,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -14759,12 +14759,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Temperature- Rearing,Cover- Boulders,Cover- Wood</t>
+          <t>Cover- Wood,Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -14838,12 +14838,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Flow- Summer Base Flow,Temperature- Rearing,Cover- Boulders</t>
+          <t>Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -14917,12 +14917,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,Cover- Boulders,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Flow- Summer Base Flow,Temperature- Rearing,</t>
+          <t>Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -15075,12 +15075,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Boulders,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -15154,12 +15154,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Flow- Summer Base Flow,Temperature- Rearing,</t>
+          <t>Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -15233,12 +15233,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Cover- Boulders,Cover- Wood</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -15312,12 +15312,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Cover- Wood</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -15467,7 +15467,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -15543,7 +15543,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -19092,7 +19092,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -19168,7 +19168,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -19845,6 +19845,11 @@
           <t>Adult Migration</t>
         </is>
       </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Flow- Summer Base Flow</t>
+        </is>
+      </c>
       <c r="J255" t="inlineStr">
         <is>
           <t>yes</t>
@@ -21512,12 +21517,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Temperature- Adult Holding,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,% Fines/Embeddedness,Flow- Summer Base Flow,Coarse Substrate</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -21591,7 +21596,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -21670,7 +21675,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -21749,7 +21754,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -21828,7 +21833,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -21907,7 +21912,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -21986,7 +21991,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -22065,7 +22070,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -22144,7 +22149,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -24901,7 +24906,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -26403,12 +26408,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing</t>
+          <t>Spawning and Incubation,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,% Fines/Embeddedness,Flow- Summer Base Flow,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,Coarse Substrate,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -26482,12 +26487,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing</t>
+          <t>Spawning and Incubation,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,Pool Quantity &amp; Quality,Coarse Substrate</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -26561,12 +26566,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing</t>
+          <t>Spawning and Incubation,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Coarse Substrate,Cover- Wood,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -26636,16 +26641,16 @@
         <v>2</v>
       </c>
       <c r="G344">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -26719,12 +26724,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -26798,12 +26803,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -26877,12 +26882,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Pool Quantity &amp; Quality,Cover- Boulders</t>
+          <t>Off-Channel/Side-Channels,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -26953,12 +26958,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Cover- Wood</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -27029,12 +27034,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,% Fines/Embeddedness,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -27105,12 +27110,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,</t>
+          <t>Off-Channel/Side-Channels,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -27181,12 +27186,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Cover- Wood</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -27257,12 +27262,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,</t>
+          <t>,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -27333,12 +27338,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels,Cover- Wood,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -27864,7 +27869,7 @@
         <v>2</v>
       </c>
       <c r="G360">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H360" t="inlineStr">
         <is>
@@ -28259,7 +28264,7 @@
         <v>2</v>
       </c>
       <c r="G365">
-        <v>0.4</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
@@ -28338,7 +28343,7 @@
         <v>2</v>
       </c>
       <c r="G366">
-        <v>0.4</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="H366" t="inlineStr">
         <is>
@@ -28417,7 +28422,7 @@
         <v>2</v>
       </c>
       <c r="G367">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
@@ -28572,7 +28577,7 @@
         <v>2</v>
       </c>
       <c r="G369">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H369" t="inlineStr">
         <is>
@@ -28651,7 +28656,7 @@
         <v>2</v>
       </c>
       <c r="G370">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H370" t="inlineStr">
         <is>
@@ -28730,7 +28735,7 @@
         <v>2</v>
       </c>
       <c r="G371">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H371" t="inlineStr">
         <is>
@@ -28809,7 +28814,7 @@
         <v>2</v>
       </c>
       <c r="G372">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H372" t="inlineStr">
         <is>
@@ -28888,7 +28893,7 @@
         <v>2</v>
       </c>
       <c r="G373">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H373" t="inlineStr">
         <is>
@@ -29046,7 +29051,7 @@
         <v>1</v>
       </c>
       <c r="G375">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H375" t="inlineStr">
         <is>
@@ -29065,7 +29070,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L375">
@@ -29836,7 +29841,7 @@
         <v>2</v>
       </c>
       <c r="G385">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H385" t="inlineStr">
         <is>
@@ -29915,7 +29920,7 @@
         <v>2</v>
       </c>
       <c r="G386">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H386" t="inlineStr">
         <is>
@@ -29994,7 +29999,7 @@
         <v>2</v>
       </c>
       <c r="G387">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H387" t="inlineStr">
         <is>
@@ -30073,7 +30078,7 @@
         <v>2</v>
       </c>
       <c r="G388">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H388" t="inlineStr">
         <is>
@@ -30152,7 +30157,7 @@
         <v>2</v>
       </c>
       <c r="G389">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H389" t="inlineStr">
         <is>
@@ -30705,7 +30710,7 @@
         <v>2</v>
       </c>
       <c r="G396">
-        <v>1</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="H396" t="inlineStr">
         <is>
@@ -30784,7 +30789,7 @@
         <v>2</v>
       </c>
       <c r="G397">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
@@ -30863,7 +30868,7 @@
         <v>2</v>
       </c>
       <c r="G398">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H398" t="inlineStr">
         <is>
@@ -30942,7 +30947,7 @@
         <v>2</v>
       </c>
       <c r="G399">
-        <v>0.5111111111111111</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H399" t="inlineStr">
         <is>
@@ -31021,7 +31026,7 @@
         <v>2</v>
       </c>
       <c r="G400">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H400" t="inlineStr">
         <is>
@@ -32116,7 +32121,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -32575,11 +32580,6 @@
           <t>Spawning and Incubation</t>
         </is>
       </c>
-      <c r="I420" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow</t>
-        </is>
-      </c>
       <c r="J420" t="inlineStr">
         <is>
           <t>yes</t>
@@ -32651,11 +32651,6 @@
           <t>Spawning and Incubation</t>
         </is>
       </c>
-      <c r="I421" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow</t>
-        </is>
-      </c>
       <c r="J421" t="inlineStr">
         <is>
           <t>yes</t>
@@ -32727,11 +32722,6 @@
           <t>Spawning and Incubation</t>
         </is>
       </c>
-      <c r="I422" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow</t>
-        </is>
-      </c>
       <c r="J422" t="inlineStr">
         <is>
           <t>yes</t>
@@ -32803,11 +32793,6 @@
           <t>Spawning and Incubation</t>
         </is>
       </c>
-      <c r="I423" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow</t>
-        </is>
-      </c>
       <c r="J423" t="inlineStr">
         <is>
           <t>yes</t>
@@ -32879,11 +32864,6 @@
           <t>Spawning and Incubation</t>
         </is>
       </c>
-      <c r="I424" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow</t>
-        </is>
-      </c>
       <c r="J424" t="inlineStr">
         <is>
           <t>yes</t>
@@ -32955,11 +32935,6 @@
           <t>Spawning and Incubation</t>
         </is>
       </c>
-      <c r="I425" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow</t>
-        </is>
-      </c>
       <c r="J425" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33031,11 +33006,6 @@
           <t>Spawning and Incubation</t>
         </is>
       </c>
-      <c r="I426" t="inlineStr">
-        <is>
-          <t>Flow- Summer Base Flow</t>
-        </is>
-      </c>
       <c r="J426" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33721,6 +33691,11 @@
           <t>Winter Rearing</t>
         </is>
       </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>Floodplain Connectivity</t>
+        </is>
+      </c>
       <c r="J435" t="inlineStr">
         <is>
           <t>yes</t>
@@ -33797,7 +33772,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness</t>
+          <t>% Fines/Embeddedness,Floodplain Connectivity</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -33876,7 +33851,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness</t>
+          <t>% Fines/Embeddedness,Floodplain Connectivity</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -33955,7 +33930,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -34034,7 +34009,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -34113,7 +34088,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -34192,7 +34167,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -34261,6 +34236,9 @@
       <c r="F442">
         <v>1</v>
       </c>
+      <c r="G442">
+        <v>0.4888888888888889</v>
+      </c>
       <c r="H442" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
@@ -34268,7 +34246,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -34347,7 +34325,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -34426,7 +34404,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -34505,7 +34483,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -34584,7 +34562,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -34663,7 +34641,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -34739,7 +34717,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -34818,7 +34796,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -35822,7 +35800,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -39670,12 +39648,12 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Coarse Substrate,Flow- Summer Base Flow,Temperature- Rearing,Pool Quantity &amp; Quality,Coarse Substrate,Coarse Substrate</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
@@ -39749,12 +39727,12 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow,% Fines/Embeddedness,Flow- Summer Base Flow,Coarse Substrate,Flow- Summer Base Flow,Temperature- Rearing,Coarse Substrate,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
@@ -39764,7 +39742,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L513">
@@ -40381,12 +40359,12 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Temperature- Adult Holding,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,% Fines/Embeddedness,Flow- Summer Base Flow,Coarse Substrate,Flow- Summer Base Flow,Temperature- Rearing,Coarse Substrate,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
@@ -40460,12 +40438,12 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Temperature- Adult Holding,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,% Fines/Embeddedness,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate,Food- Food Web Resources,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
@@ -40539,12 +40517,12 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Coarse Substrate,Temperature- Rearing,Pool Quantity &amp; Quality,Flow- Summer Base Flow,Coarse Substrate,Coarse Substrate</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
@@ -40554,7 +40532,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L523">
@@ -40618,12 +40596,12 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Temperature- Adult Holding,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing</t>
+          <t>Flow- Summer Base Flow,% Fines/Embeddedness,Flow- Summer Base Flow,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate,Pool Quantity &amp; Quality,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
@@ -40697,12 +40675,12 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Coarse Substrate,% Fines/Embeddedness,Flow- Summer Base Flow,Temperature- Rearing,Coarse Substrate,Coarse Substrate,% Fines/Embeddedness</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
@@ -40776,12 +40754,12 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+          <t>Flow- Summer Base Flow,% Fines/Embeddedness,Flow- Summer Base Flow,Coarse Substrate,Temperature- Rearing,Pool Quantity &amp; Quality,Flow- Summer Base Flow,Coarse Substrate,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
@@ -40855,12 +40833,12 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+          <t>Flow- Summer Base Flow,% Fines/Embeddedness,Flow- Summer Base Flow,Coarse Substrate,Flow- Summer Base Flow,Temperature- Rearing,Coarse Substrate,Pool Quantity &amp; Quality,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
@@ -40934,12 +40912,12 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,% Fines/Embeddedness,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
@@ -41240,7 +41218,7 @@
         <v>1</v>
       </c>
       <c r="G532">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H532" t="inlineStr">
         <is>
@@ -41319,7 +41297,7 @@
         <v>1</v>
       </c>
       <c r="G533">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H533" t="inlineStr">
         <is>
@@ -41398,7 +41376,7 @@
         <v>1</v>
       </c>
       <c r="G534">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H534" t="inlineStr">
         <is>
@@ -41477,7 +41455,7 @@
         <v>1</v>
       </c>
       <c r="G535">
-        <v>0.4</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="H535" t="inlineStr">
         <is>
@@ -41556,7 +41534,7 @@
         <v>1</v>
       </c>
       <c r="G536">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H536" t="inlineStr">
         <is>
@@ -41635,7 +41613,7 @@
         <v>1</v>
       </c>
       <c r="G537">
-        <v>0.3777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H537" t="inlineStr">
         <is>
@@ -41794,7 +41772,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -41870,7 +41848,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
@@ -41946,7 +41924,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -42022,7 +42000,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -42098,7 +42076,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -42174,7 +42152,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I544" t="inlineStr">
@@ -42250,7 +42228,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I545" t="inlineStr">
@@ -42326,7 +42304,7 @@
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -42402,7 +42380,7 @@
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -42782,12 +42760,12 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,</t>
+          <t>,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
@@ -42858,12 +42836,12 @@
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,Pool Quantity &amp; Quality,</t>
+          <t>,Flow- Summer Base Flow,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
@@ -42934,7 +42912,7 @@
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -43010,7 +42988,7 @@
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -43086,7 +43064,7 @@
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -43162,7 +43140,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I557" t="inlineStr">
@@ -43238,7 +43216,7 @@
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
@@ -43687,7 +43665,7 @@
         <v>2</v>
       </c>
       <c r="G564">
-        <v>0.7777777777777778</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="H564" t="inlineStr">
         <is>
@@ -43706,7 +43684,7 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L564">
@@ -44809,7 +44787,7 @@
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
@@ -44888,12 +44866,12 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Coarse Substrate,Temperature- Rearing,Pool Quantity &amp; Quality,Flow- Summer Base Flow,Coarse Substrate,Coarse Substrate</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
@@ -44903,7 +44881,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L580">
@@ -44967,12 +44945,12 @@
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Temperature- Adult Holding,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Flow- Scour,% Fines/Embeddedness,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate,Food- Food Web Resources,Cover- Wood,Flow- Scour,% Fines/Embeddedness,Cover- Wood,Coarse Substrate</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
@@ -45046,12 +45024,12 @@
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+          <t>Flow- Summer Base Flow,% Fines/Embeddedness,Flow- Summer Base Flow,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
@@ -45125,12 +45103,12 @@
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,% Fines/Embeddedness,Coarse Substrate,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Food- Food Web Resources,Coarse Substrate,Cover- Wood,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
@@ -45204,12 +45182,12 @@
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow,Flow- Scour,Flow- Summer Base Flow,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate,Flow- Scour,Coarse Substrate</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
@@ -45219,7 +45197,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L584">
@@ -45283,12 +45261,12 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Temperature- Adult Holding,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Coarse Substrate,Flow- Summer Base Flow,Temperature- Rearing,Food- Food Web Resources,Coarse Substrate,Cover- Wood,Coarse Substrate,Cover- Wood</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
@@ -45362,12 +45340,12 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+          <t>Flow- Summer Base Flow,% Fines/Embeddedness,Flow- Summer Base Flow,Coarse Substrate,Flow- Scour,Temperature- Rearing,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Coarse Substrate,% Fines/Embeddedness,Flow- Scour,Coarse Substrate</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
@@ -45441,12 +45419,12 @@
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,% Fines/Embeddedness,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Cover- Wood,Coarse Substrate,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
@@ -45520,12 +45498,12 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,% Fines/Embeddedness,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate,Pool Quantity &amp; Quality,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
@@ -45535,7 +45513,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L588">
@@ -45599,12 +45577,12 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Coarse Substrate,% Fines/Embeddedness,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
@@ -45678,12 +45656,12 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources</t>
+          <t>Flow- Summer Base Flow,% Fines/Embeddedness,Flow- Summer Base Flow,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate,% Fines/Embeddedness,Coarse Substrate</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
@@ -45757,12 +45735,12 @@
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,% Fines/Embeddedness,Coarse Substrate,Flow- Summer Base Flow,Temperature- Rearing,Cover- Wood,Coarse Substrate,% Fines/Embeddedness,Cover- Wood,Coarse Substrate</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
@@ -45836,12 +45814,12 @@
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>Adult Migration,Smolt Outmigration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Smolt Outmigration</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,% Fines/Embeddedness,Coarse Substrate,Temperature- Rearing,Flow- Summer Base Flow,Cover- Wood,Coarse Substrate,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
@@ -46064,7 +46042,7 @@
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
@@ -46295,12 +46273,12 @@
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>Adult Migration,Summer Rearing</t>
+          <t>Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing,Coarse Substrate,Flow- Summer Base Flow,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
@@ -46310,7 +46288,7 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L598">
@@ -46374,12 +46352,12 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>Adult Migration,Summer Rearing</t>
+          <t>Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Adult Holding,Cover- Wood,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Flow- Summer Base Flow,Temperature- Rearing,Pool Quantity &amp; Quality,Coarse Substrate,Food- Food Web Resources,Cover- Wood</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
@@ -46453,12 +46431,12 @@
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>Adult Migration,Summer Rearing</t>
+          <t>Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Temperature- Adult Holding,Cover- Wood,Cover- Wood,Cover- Wood,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Food- Food Web Resources,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing,Cover- Wood,Flow- Summer Base Flow,Food- Food Web Resources,Coarse Substrate</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
@@ -46532,12 +46510,12 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>Adult Migration,Summer Rearing</t>
+          <t>Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Coarse Substrate,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
@@ -46547,7 +46525,7 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L601">
@@ -46611,12 +46589,12 @@
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>Adult Migration,Summer Rearing</t>
+          <t>Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>No Priority Life Stages with Limiting Factors</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing,Flow- Summer Base Flow,Coarse Substrate</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
@@ -46626,7 +46604,7 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L602">
@@ -46690,12 +46668,12 @@
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Adult Migration,Summer Rearing</t>
+          <t>Summer Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Cover- Wood,Cover- Wood,Temperature- Adult Holding,Cover- Wood,Cover- Wood,Cover- Wood,Temperature- Rearing,Temperature- Rearing,Temperature- Rearing,Cover- Wood,Cover- Wood,Cover- Wood</t>
+          <t>Flow- Summer Base Flow,Temperature- Rearing,Flow- Summer Base Flow,Cover- Wood,Coarse Substrate</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
@@ -47833,12 +47811,12 @@
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Flow- Summer Base Flow,Pool Quantity &amp; Quality,% Fines/Embeddedness</t>
+          <t>% Fines/Embeddedness,Floodplain Connectivity,Off-Channel/Side-Channels,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
@@ -47909,7 +47887,7 @@
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -47985,7 +47963,7 @@
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -49137,7 +49115,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -49213,7 +49191,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -49289,7 +49267,7 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>Adult Migration,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Adult Migration</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -49899,7 +49877,7 @@
         <v>2</v>
       </c>
       <c r="G645">
-        <v>0.8888888888888888</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="H645" t="inlineStr">
         <is>
@@ -49982,12 +49960,12 @@
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
@@ -50061,12 +50039,12 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
@@ -50140,12 +50118,12 @@
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
@@ -50219,12 +50197,12 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
@@ -50298,12 +50276,12 @@
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
@@ -50377,12 +50355,12 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
@@ -50456,12 +50434,12 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
@@ -50535,12 +50513,12 @@
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Flow- Summer Base Flow,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
@@ -50610,16 +50588,16 @@
         <v>1</v>
       </c>
       <c r="G654">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J654" t="inlineStr">
@@ -50689,16 +50667,16 @@
         <v>1</v>
       </c>
       <c r="G655">
-        <v>0.5777777777777777</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Flow- Summer Base Flow,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
@@ -50772,12 +50750,12 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
@@ -50851,12 +50829,12 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Flow- Summer Base Flow,Temperature- Rearing,% Fines/Embeddedness,Cover- Boulders</t>
+          <t>% Fines/Embeddedness,Floodplain Connectivity,Floodplain Connectivity,Flow- Summer Base Flow,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
@@ -50930,12 +50908,12 @@
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Undercut Banks,Temperature- Rearing,Cover- Boulders</t>
+          <t>Floodplain Connectivity,Floodplain Connectivity,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
@@ -51009,12 +50987,12 @@
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
@@ -51088,12 +51066,12 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
@@ -51167,12 +51145,12 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Coarse Substrate,Cover- Boulders,Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Temperature- Rearing,% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Off-Channel/Side-Channels,Coarse Substrate,Cover- Wood,Off-Channel/Side-Channels,Pool Quantity &amp; Quality,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
@@ -51246,12 +51224,12 @@
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Cover- Wood,Temperature- Rearing,Cover- Wood</t>
+          <t>Cover- Wood,Cover- Wood,Temperature- Rearing</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
@@ -51325,12 +51303,12 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
@@ -51404,12 +51382,12 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Cover- Undercut Banks,Cover- Wood,Pool Quantity &amp; Quality,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels,Pool Quantity &amp; Quality</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
@@ -51796,12 +51774,12 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Flow- Summer Base Flow,</t>
+          <t>,Flow- Summer Base Flow</t>
         </is>
       </c>
       <c r="J669" t="inlineStr">
@@ -52187,7 +52165,7 @@
         <v>3</v>
       </c>
       <c r="G674">
-        <v>0.8666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H674" t="inlineStr">
         <is>
@@ -52201,7 +52179,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K674" t="inlineStr">
@@ -52266,16 +52244,11 @@
         <v>2</v>
       </c>
       <c r="G675">
-        <v>0.9111111111111111</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="H675" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="I675" t="inlineStr">
-        <is>
-          <t>Cover- Boulders</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
@@ -52345,7 +52318,7 @@
         <v>2</v>
       </c>
       <c r="G676">
-        <v>0.8</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="H676" t="inlineStr">
         <is>
@@ -52424,7 +52397,7 @@
         <v>2</v>
       </c>
       <c r="G677">
-        <v>0.6444444444444445</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H677" t="inlineStr">
         <is>
@@ -52433,7 +52406,7 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
@@ -52503,7 +52476,7 @@
         <v>2</v>
       </c>
       <c r="G678">
-        <v>0.6444444444444445</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H678" t="inlineStr">
         <is>
@@ -52512,7 +52485,7 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
@@ -52582,7 +52555,7 @@
         <v>2</v>
       </c>
       <c r="G679">
-        <v>0.4666666666666667</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="H679" t="inlineStr">
         <is>
@@ -52591,7 +52564,7 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
@@ -52661,7 +52634,7 @@
         <v>2</v>
       </c>
       <c r="G680">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H680" t="inlineStr">
         <is>
@@ -52670,7 +52643,7 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
@@ -52740,7 +52713,7 @@
         <v>2</v>
       </c>
       <c r="G681">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H681" t="inlineStr">
         <is>
@@ -52749,7 +52722,7 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J681" t="inlineStr">
@@ -52819,7 +52792,7 @@
         <v>2</v>
       </c>
       <c r="G682">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H682" t="inlineStr">
         <is>
@@ -52828,7 +52801,7 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
@@ -52898,7 +52871,7 @@
         <v>2</v>
       </c>
       <c r="G683">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H683" t="inlineStr">
         <is>
@@ -52907,7 +52880,7 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
@@ -52977,7 +52950,7 @@
         <v>2</v>
       </c>
       <c r="G684">
-        <v>0.6222222222222222</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H684" t="inlineStr">
         <is>
@@ -52986,7 +52959,7 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J684" t="inlineStr">
@@ -53056,7 +53029,7 @@
         <v>2</v>
       </c>
       <c r="G685">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H685" t="inlineStr">
         <is>
@@ -53065,7 +53038,7 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Boulders,Cover- Wood</t>
+          <t>% Fines/Embeddedness,Coarse Substrate,Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
@@ -53135,7 +53108,7 @@
         <v>2</v>
       </c>
       <c r="G686">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H686" t="inlineStr">
         <is>
@@ -53144,7 +53117,7 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Cover- Boulders,Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
@@ -53214,7 +53187,7 @@
         <v>2</v>
       </c>
       <c r="G687">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H687" t="inlineStr">
         <is>
@@ -53223,7 +53196,7 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
@@ -53302,7 +53275,7 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J688" t="inlineStr">
@@ -53372,7 +53345,7 @@
         <v>3</v>
       </c>
       <c r="G689">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H689" t="inlineStr">
         <is>
@@ -53381,7 +53354,7 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
@@ -53460,7 +53433,7 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J690" t="inlineStr">
@@ -53609,7 +53582,7 @@
         <v>3</v>
       </c>
       <c r="G692">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H692" t="inlineStr">
         <is>
@@ -53688,7 +53661,7 @@
         <v>2</v>
       </c>
       <c r="G693">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H693" t="inlineStr">
         <is>
@@ -53697,7 +53670,7 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
@@ -53767,7 +53740,7 @@
         <v>2</v>
       </c>
       <c r="G694">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="H694" t="inlineStr">
         <is>
@@ -53846,7 +53819,7 @@
         <v>2</v>
       </c>
       <c r="G695">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H695" t="inlineStr">
         <is>
@@ -53925,7 +53898,7 @@
         <v>2</v>
       </c>
       <c r="G696">
-        <v>0.5333333333333333</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="H696" t="inlineStr">
         <is>
@@ -54004,7 +53977,7 @@
         <v>2</v>
       </c>
       <c r="G697">
-        <v>0.5777777777777777</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H697" t="inlineStr">
         <is>
@@ -54241,7 +54214,7 @@
         <v>3</v>
       </c>
       <c r="G700">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H700" t="inlineStr">
         <is>
@@ -54250,7 +54223,7 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
@@ -54320,7 +54293,7 @@
         <v>3</v>
       </c>
       <c r="G701">
-        <v>0.4666666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="H701" t="inlineStr">
         <is>
@@ -54329,7 +54302,7 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J701" t="inlineStr">
@@ -54399,7 +54372,7 @@
         <v>3</v>
       </c>
       <c r="G702">
-        <v>0.4888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H702" t="inlineStr">
         <is>
@@ -54408,7 +54381,7 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
@@ -54478,7 +54451,7 @@
         <v>3</v>
       </c>
       <c r="G703">
-        <v>0.4888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="H703" t="inlineStr">
         <is>
@@ -54487,7 +54460,7 @@
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Cover- Wood</t>
+          <t>Cover- Wood,Floodplain Connectivity,Off-Channel/Side-Channels</t>
         </is>
       </c>
       <c r="J703" t="inlineStr">
@@ -54557,7 +54530,7 @@
         <v>2</v>
       </c>
       <c r="G704">
-        <v>0.6</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="H704" t="inlineStr">
         <is>
@@ -54636,7 +54609,7 @@
         <v>2</v>
       </c>
       <c r="G705">
-        <v>0.6222222222222222</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H705" t="inlineStr">
         <is>
